--- a/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.21709405421265</v>
+        <v>90.03630918455629</v>
       </c>
       <c r="D2" t="n">
-        <v>1.879400867142913</v>
+        <v>1.753116334254479</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.08892442371395</v>
+        <v>88.9530838619314</v>
       </c>
       <c r="D3" t="n">
-        <v>1.583202833751033</v>
+        <v>1.626639391940472</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.96743394801416</v>
+        <v>87.9373775743847</v>
       </c>
       <c r="D4" t="n">
-        <v>1.563135391472528</v>
+        <v>1.66627307430327</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.04080072002731</v>
+        <v>87.10127777720274</v>
       </c>
       <c r="D5" t="n">
-        <v>1.580967322061542</v>
+        <v>1.734556908514945</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.45642095556623</v>
+        <v>86.25348461477328</v>
       </c>
       <c r="D6" t="n">
-        <v>1.807719311899885</v>
+        <v>1.670518930142916</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.92454007026593</v>
+        <v>85.08276414350233</v>
       </c>
       <c r="D7" t="n">
-        <v>2.012088850639332</v>
+        <v>1.752660598574081</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.65042644827625</v>
+        <v>83.94860908379412</v>
       </c>
       <c r="D8" t="n">
-        <v>2.007590638784117</v>
+        <v>2.056940798119729</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.95619300342074</v>
+        <v>82.92199119874023</v>
       </c>
       <c r="D9" t="n">
-        <v>1.935296505726331</v>
+        <v>1.604919426287537</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.23031406013961</v>
+        <v>81.66056209771975</v>
       </c>
       <c r="D10" t="n">
-        <v>1.924443627253896</v>
+        <v>1.651420858436532</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.03749436643113</v>
+        <v>81.18914411984518</v>
       </c>
       <c r="D11" t="n">
-        <v>1.550919920295488</v>
+        <v>1.955226672990621</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.18751069431364</v>
+        <v>79.69195227203979</v>
       </c>
       <c r="D12" t="n">
-        <v>1.699971958622736</v>
+        <v>1.658709140886873</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.75693475024418</v>
+        <v>79.18277846534723</v>
       </c>
       <c r="D13" t="n">
-        <v>1.887193905006112</v>
+        <v>1.821886878606638</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.11113576340617</v>
+        <v>77.95977667204875</v>
       </c>
       <c r="D14" t="n">
-        <v>1.955320444645697</v>
+        <v>1.625199716262296</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.99621973240916</v>
+        <v>77.04291043821337</v>
       </c>
       <c r="D15" t="n">
-        <v>1.728892277608475</v>
+        <v>1.936251669151217</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.32887508084005</v>
+        <v>75.81031631331118</v>
       </c>
       <c r="D16" t="n">
-        <v>1.678041434202528</v>
+        <v>1.791216305084108</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.6513773035492</v>
+        <v>74.94913592729145</v>
       </c>
       <c r="D17" t="n">
-        <v>1.834880615037416</v>
+        <v>1.976293211124033</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.76286734156031</v>
+        <v>73.95688427182515</v>
       </c>
       <c r="D18" t="n">
-        <v>1.911026997468509</v>
+        <v>2.251514718724772</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.78679803005203</v>
+        <v>72.80117113598837</v>
       </c>
       <c r="D19" t="n">
-        <v>1.807257853823826</v>
+        <v>1.895132057669177</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.72562767574057</v>
+        <v>72.0604290860755</v>
       </c>
       <c r="D20" t="n">
-        <v>1.798861985935721</v>
+        <v>1.980612288400648</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.52587569568124</v>
+        <v>70.78857650167001</v>
       </c>
       <c r="D21" t="n">
-        <v>1.924044034941546</v>
+        <v>1.815276241757218</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.93330622068252</v>
+        <v>69.73594853371723</v>
       </c>
       <c r="D22" t="n">
-        <v>1.902759004050468</v>
+        <v>1.889771472733916</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.08009605139871</v>
+        <v>68.93170210452928</v>
       </c>
       <c r="D23" t="n">
-        <v>1.946740832552802</v>
+        <v>1.908961808420951</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.18632727777242</v>
+        <v>68.06897402638039</v>
       </c>
       <c r="D24" t="n">
-        <v>1.93526166344042</v>
+        <v>2.105828376522743</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.29429818810335</v>
+        <v>67.27492374719894</v>
       </c>
       <c r="D25" t="n">
-        <v>1.824696138238186</v>
+        <v>1.96576338817748</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.98515262566725</v>
+        <v>65.93738827693231</v>
       </c>
       <c r="D26" t="n">
-        <v>2.011972361987026</v>
+        <v>2.110804636520736</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.02676997582957</v>
+        <v>65.06750189866904</v>
       </c>
       <c r="D27" t="n">
-        <v>1.767173025687232</v>
+        <v>2.275484841946698</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.22974040064305</v>
+        <v>64.01097347621175</v>
       </c>
       <c r="D28" t="n">
-        <v>1.883931957210006</v>
+        <v>1.99350253450626</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.94585491617304</v>
+        <v>62.89039010897781</v>
       </c>
       <c r="D29" t="n">
-        <v>1.879043992740947</v>
+        <v>1.966501696997539</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.96705335522822</v>
+        <v>62.22069991417825</v>
       </c>
       <c r="D30" t="n">
-        <v>1.99992856144187</v>
+        <v>1.965453997873914</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.06917750083351</v>
+        <v>60.7952022093687</v>
       </c>
       <c r="D31" t="n">
-        <v>1.915802047804704</v>
+        <v>1.99060501861614</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.06830235473789</v>
+        <v>59.92046072802476</v>
       </c>
       <c r="D32" t="n">
-        <v>2.086887137457551</v>
+        <v>1.892048555734985</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.10369308978983</v>
+        <v>58.75633921783883</v>
       </c>
       <c r="D33" t="n">
-        <v>2.262233829308559</v>
+        <v>1.947807394073821</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.84013023917945</v>
+        <v>57.87749235939799</v>
       </c>
       <c r="D34" t="n">
-        <v>2.230538138641349</v>
+        <v>2.504639406488885</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.85066350667839</v>
+        <v>57.00851825697978</v>
       </c>
       <c r="D35" t="n">
-        <v>1.999071198699208</v>
+        <v>2.212353514392178</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.14890004251831</v>
+        <v>55.94835826160374</v>
       </c>
       <c r="D36" t="n">
-        <v>2.303723762865106</v>
+        <v>2.136378207184744</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.86684367388468</v>
+        <v>55.08995915963033</v>
       </c>
       <c r="D37" t="n">
-        <v>2.0960626490923</v>
+        <v>2.087588320001112</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.36082098887145</v>
+        <v>53.83463514577193</v>
       </c>
       <c r="D38" t="n">
-        <v>2.098327215028831</v>
+        <v>2.106549948208373</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.99449757847443</v>
+        <v>52.86339183650708</v>
       </c>
       <c r="D39" t="n">
-        <v>2.076674075642077</v>
+        <v>2.419766591384603</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.10908293154728</v>
+        <v>52.09799130746328</v>
       </c>
       <c r="D40" t="n">
-        <v>2.250113203869238</v>
+        <v>2.003253255591824</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.89893737026545</v>
+        <v>50.88284378950692</v>
       </c>
       <c r="D41" t="n">
-        <v>2.189013258112698</v>
+        <v>2.12520954832968</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.5891977343455</v>
+        <v>49.71596401781162</v>
       </c>
       <c r="D42" t="n">
-        <v>2.13949789148452</v>
+        <v>2.020876019495996</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.17407311145858</v>
+        <v>49.00536908450344</v>
       </c>
       <c r="D43" t="n">
-        <v>2.093810726859877</v>
+        <v>1.995374260647866</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.24499732424388</v>
+        <v>48.16717822283093</v>
       </c>
       <c r="D44" t="n">
-        <v>2.15918448685367</v>
+        <v>1.899915821228168</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.87436586713723</v>
+        <v>47.22116288809875</v>
       </c>
       <c r="D45" t="n">
-        <v>2.114968758236941</v>
+        <v>2.009906775787819</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.95114505222828</v>
+        <v>45.86416815879422</v>
       </c>
       <c r="D46" t="n">
-        <v>2.173844446757227</v>
+        <v>1.941094627842434</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.92760383330646</v>
+        <v>44.61446790622031</v>
       </c>
       <c r="D47" t="n">
-        <v>2.222799771090659</v>
+        <v>2.201048471150952</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.26527160463883</v>
+        <v>44.18102852145961</v>
       </c>
       <c r="D48" t="n">
-        <v>2.214354136006023</v>
+        <v>2.355988270880875</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.90664654955754</v>
+        <v>42.84889310394198</v>
       </c>
       <c r="D49" t="n">
-        <v>2.316216097352513</v>
+        <v>2.440000042337564</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.75666867986484</v>
+        <v>42.4222358496631</v>
       </c>
       <c r="D50" t="n">
-        <v>2.003666858450535</v>
+        <v>2.080159426411276</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.95226164043225</v>
+        <v>40.72946381046235</v>
       </c>
       <c r="D51" t="n">
-        <v>2.488591856323195</v>
+        <v>2.269237807006043</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.96744159306902</v>
+        <v>39.83983794341292</v>
       </c>
       <c r="D52" t="n">
-        <v>2.1939010587519</v>
+        <v>2.533262845770761</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.257792712602</v>
+        <v>38.94639470894365</v>
       </c>
       <c r="D53" t="n">
-        <v>2.364849842070466</v>
+        <v>2.443899617510819</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.45541138897438</v>
+        <v>37.60642971476196</v>
       </c>
       <c r="D54" t="n">
-        <v>2.14103492093984</v>
+        <v>2.415140506039648</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.9237717610895</v>
+        <v>37.21389437558926</v>
       </c>
       <c r="D55" t="n">
-        <v>2.664287745616977</v>
+        <v>2.24056517781429</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.05759275400917</v>
+        <v>36.06723758125754</v>
       </c>
       <c r="D56" t="n">
-        <v>2.514039456557322</v>
+        <v>2.350569068111756</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.22053957322199</v>
+        <v>34.81086045211818</v>
       </c>
       <c r="D57" t="n">
-        <v>2.395923346662035</v>
+        <v>2.413036717386522</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.88309898701873</v>
+        <v>34.17187309634225</v>
       </c>
       <c r="D58" t="n">
-        <v>2.327865128079225</v>
+        <v>2.194793866015279</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.99435429670577</v>
+        <v>33.19939390460379</v>
       </c>
       <c r="D59" t="n">
-        <v>2.499194224977473</v>
+        <v>1.918517498638072</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.23289276355158</v>
+        <v>31.99138555007453</v>
       </c>
       <c r="D60" t="n">
-        <v>2.141931280904981</v>
+        <v>2.51979189545424</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.23277404130289</v>
+        <v>31.02932433727538</v>
       </c>
       <c r="D61" t="n">
-        <v>2.531121650070622</v>
+        <v>2.342463368507302</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.77135009445887</v>
+        <v>29.64664159249494</v>
       </c>
       <c r="D62" t="n">
-        <v>2.312433844348351</v>
+        <v>2.288230336023417</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.11856101893243</v>
+        <v>28.90225924495392</v>
       </c>
       <c r="D63" t="n">
-        <v>2.149439937578889</v>
+        <v>2.406572454887067</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.27706149330117</v>
+        <v>27.5403245659207</v>
       </c>
       <c r="D64" t="n">
-        <v>2.791576400684912</v>
+        <v>2.301305540065091</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.15562341107198</v>
+        <v>27.03937912415208</v>
       </c>
       <c r="D65" t="n">
-        <v>2.452426291305387</v>
+        <v>2.474815492740092</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.01535634847889</v>
+        <v>25.89209887728797</v>
       </c>
       <c r="D66" t="n">
-        <v>2.39206397458131</v>
+        <v>2.286006949358979</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.14500616770668</v>
+        <v>24.64390519319037</v>
       </c>
       <c r="D67" t="n">
-        <v>2.589856659417784</v>
+        <v>2.297839410692291</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.26499547525191</v>
+        <v>23.94174214621012</v>
       </c>
       <c r="D68" t="n">
-        <v>2.476283783045357</v>
+        <v>2.2840989122977</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.11499608143642</v>
+        <v>23.05296869199967</v>
       </c>
       <c r="D69" t="n">
-        <v>2.485148032641444</v>
+        <v>2.532641603331583</v>
       </c>
     </row>
   </sheetData>
